--- a/Suggestions & Feedback.xlsx
+++ b/Suggestions & Feedback.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Ricky</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Mike S</t>
+  </si>
+  <si>
+    <t>permalink for events (next to the FB, twit icons)</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +481,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
